--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="3680" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>sac15@grr.la</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>0222</t>
   </si>
 </sst>
 </file>
@@ -100,9 +106,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -437,14 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -496,6 +504,14 @@
       </c>
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="3680" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>0222</t>
+  </si>
+  <si>
+    <t>CMS Username</t>
+  </si>
+  <si>
+    <t>CMS Password</t>
+  </si>
+  <si>
+    <t>Vamsi</t>
+  </si>
+  <si>
+    <t>Vamsi123*</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -512,6 +524,22 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Any Message</t>
   </si>
   <si>
-    <t>sac14@grr.la</t>
-  </si>
-  <si>
-    <t>sac15@grr.la</t>
-  </si>
-  <si>
     <t>4111111111111111</t>
   </si>
   <si>
@@ -61,6 +55,24 @@
   </si>
   <si>
     <t>Vamsi123*</t>
+  </si>
+  <si>
+    <t>srikantha@boston-technology.com</t>
+  </si>
+  <si>
+    <t>btcsoft@123</t>
+  </si>
+  <si>
+    <t>Paypal UserName</t>
+  </si>
+  <si>
+    <t>PayPal Password</t>
+  </si>
+  <si>
+    <t>sac32@grr.la</t>
+  </si>
+  <si>
+    <t>sac33@grr.la</t>
   </si>
 </sst>
 </file>
@@ -73,7 +85,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,16 +467,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -478,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -501,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -520,18 +532,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -542,13 +558,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachin\git\MGC\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -69,17 +74,74 @@
     <t>PayPal Password</t>
   </si>
   <si>
-    <t>sac32@grr.la</t>
-  </si>
-  <si>
-    <t>sac33@grr.la</t>
+    <t>Lab Name</t>
+  </si>
+  <si>
+    <t>Testtype</t>
+  </si>
+  <si>
+    <t>SubSpec</t>
+  </si>
+  <si>
+    <t>resultType</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>Sachin Labs</t>
+  </si>
+  <si>
+    <t>To determine if my/my family's condition is genetic</t>
+  </si>
+  <si>
+    <t>Obstetrics</t>
+  </si>
+  <si>
+    <t>Low Risk</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>JPG Path</t>
+  </si>
+  <si>
+    <t>PNG path</t>
+  </si>
+  <si>
+    <t>PDF Path</t>
+  </si>
+  <si>
+    <t>C:/Users/Sachin/git/MGC/input/JPG_FILE.jpg</t>
+  </si>
+  <si>
+    <t>C:/Users/Sachin/git/MGC/input/PNG_FILE.png</t>
+  </si>
+  <si>
+    <t>C:/Users/Sachin/git/MGC/input/Sample.pdf</t>
+  </si>
+  <si>
+    <t>sac50@grr.la</t>
+  </si>
+  <si>
+    <t>sac51@grr.la</t>
+  </si>
+  <si>
+    <t>sac52@grr.la</t>
+  </si>
+  <si>
+    <t>sac53@grr.la</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,10 +191,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -142,6 +210,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,22 +543,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="5" width="11.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -490,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -505,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -513,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -522,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -538,11 +614,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -550,7 +626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -558,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -566,12 +642,116 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -579,9 +759,11 @@
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C1" r:id="rId3"/>
+    <hyperlink ref="C16" r:id="rId4"/>
+    <hyperlink ref="C17" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -128,13 +128,22 @@
     <t>sac50@grr.la</t>
   </si>
   <si>
-    <t>sac51@grr.la</t>
-  </si>
-  <si>
-    <t>sac52@grr.la</t>
-  </si>
-  <si>
-    <t>sac53@grr.la</t>
+    <t>sac65@grr.la</t>
+  </si>
+  <si>
+    <t>sac66@grr.la</t>
+  </si>
+  <si>
+    <t>sac67@grr.la</t>
+  </si>
+  <si>
+    <t>sac68@grr.la</t>
+  </si>
+  <si>
+    <t>sac69@grr.la</t>
+  </si>
+  <si>
+    <t>Paypal new Registered email id</t>
   </si>
 </sst>
 </file>
@@ -191,7 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -200,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -566,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -589,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -716,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -739,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -754,16 +766,58 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C1" r:id="rId3"/>
     <hyperlink ref="C16" r:id="rId4"/>
     <hyperlink ref="C17" r:id="rId5"/>
+    <hyperlink ref="C18" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId8"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachin\git\MGC\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14055" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -116,41 +111,59 @@
     <t>PDF Path</t>
   </si>
   <si>
-    <t>C:/Users/Sachin/git/MGC/input/JPG_FILE.jpg</t>
-  </si>
-  <si>
-    <t>C:/Users/Sachin/git/MGC/input/PNG_FILE.png</t>
-  </si>
-  <si>
-    <t>C:/Users/Sachin/git/MGC/input/Sample.pdf</t>
-  </si>
-  <si>
     <t>sac50@grr.la</t>
   </si>
   <si>
-    <t>sac65@grr.la</t>
-  </si>
-  <si>
-    <t>sac66@grr.la</t>
-  </si>
-  <si>
-    <t>sac67@grr.la</t>
-  </si>
-  <si>
-    <t>sac68@grr.la</t>
-  </si>
-  <si>
-    <t>sac69@grr.la</t>
-  </si>
-  <si>
     <t>Paypal new Registered email id</t>
+  </si>
+  <si>
+    <t>sac70@grr.la</t>
+  </si>
+  <si>
+    <t>sac71@grr.la</t>
+  </si>
+  <si>
+    <t>sac72@grr.la</t>
+  </si>
+  <si>
+    <t>sac73@grr.la</t>
+  </si>
+  <si>
+    <t>sac74@grr.la</t>
+  </si>
+  <si>
+    <t>Relative jpg path</t>
+  </si>
+  <si>
+    <t>Relative pdf path</t>
+  </si>
+  <si>
+    <t>Relative png path</t>
+  </si>
+  <si>
+    <t>./input/JPG_FILE.jpg</t>
+  </si>
+  <si>
+    <t>./input/PNG_FILE.png</t>
+  </si>
+  <si>
+    <t>./input/Sample.pdf</t>
+  </si>
+  <si>
+    <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/PNG_FILE.png</t>
+  </si>
+  <si>
+    <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/JPG_FILE.jpg</t>
+  </si>
+  <si>
+    <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/Sample.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +187,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +220,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -211,8 +231,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -555,22 +576,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -593,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -601,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -610,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -626,11 +649,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -638,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -646,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -654,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -662,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -690,8 +713,17 @@
       <c r="I12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="63">
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="90">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -711,16 +743,25 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -728,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -751,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -791,13 +832,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -808,7 +849,7 @@
     <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" display="sac1@grr.la"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="C1" r:id="rId3"/>
     <hyperlink ref="C16" r:id="rId4"/>
@@ -817,7 +858,7 @@
     <hyperlink ref="A21" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>sac@grr.la</t>
   </si>
@@ -117,21 +117,6 @@
     <t>Paypal new Registered email id</t>
   </si>
   <si>
-    <t>sac70@grr.la</t>
-  </si>
-  <si>
-    <t>sac71@grr.la</t>
-  </si>
-  <si>
-    <t>sac72@grr.la</t>
-  </si>
-  <si>
-    <t>sac73@grr.la</t>
-  </si>
-  <si>
-    <t>sac74@grr.la</t>
-  </si>
-  <si>
     <t>Relative jpg path</t>
   </si>
   <si>
@@ -157,6 +142,24 @@
   </si>
   <si>
     <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/Sample.pdf</t>
+  </si>
+  <si>
+    <t>sac80@grr.la</t>
+  </si>
+  <si>
+    <t>sac81@grr.la</t>
+  </si>
+  <si>
+    <t>sac82@grr.la</t>
+  </si>
+  <si>
+    <t>sac83@grr.la</t>
+  </si>
+  <si>
+    <t>sac84@grr.la</t>
+  </si>
+  <si>
+    <t>sac85@grr.la</t>
   </si>
 </sst>
 </file>
@@ -578,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -624,13 +627,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -714,13 +720,13 @@
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="90">
@@ -743,22 +749,22 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -769,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -792,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -856,6 +862,7 @@
     <hyperlink ref="C17" r:id="rId5"/>
     <hyperlink ref="C18" r:id="rId6"/>
     <hyperlink ref="A21" r:id="rId7"/>
+    <hyperlink ref="G2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="14020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,6 @@
     <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/Sample.pdf</t>
   </si>
   <si>
-    <t>sac80@grr.la</t>
-  </si>
-  <si>
-    <t>sac81@grr.la</t>
-  </si>
-  <si>
-    <t>sac82@grr.la</t>
-  </si>
-  <si>
     <t>sac83@grr.la</t>
   </si>
   <si>
@@ -160,6 +151,15 @@
   </si>
   <si>
     <t>sac85@grr.la</t>
+  </si>
+  <si>
+    <t>sac80@mailinator.com</t>
+  </si>
+  <si>
+    <t>sac81@mailinator.com</t>
+  </si>
+  <si>
+    <t>sac82@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -604,7 +604,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -775,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -856,13 +856,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="sac1@grr.la"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C1" r:id="rId3"/>
-    <hyperlink ref="C16" r:id="rId4"/>
-    <hyperlink ref="C17" r:id="rId5"/>
-    <hyperlink ref="C18" r:id="rId6"/>
-    <hyperlink ref="A21" r:id="rId7"/>
-    <hyperlink ref="G2" r:id="rId8"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="A21" r:id="rId6"/>
+    <hyperlink ref="G2" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/input/data.xlsx
+++ b/input/data.xlsx
@@ -111,9 +111,6 @@
     <t>PDF Path</t>
   </si>
   <si>
-    <t>sac50@grr.la</t>
-  </si>
-  <si>
     <t>Paypal new Registered email id</t>
   </si>
   <si>
@@ -144,29 +141,32 @@
     <t>/Users/sachin/eclipse-workspace/MGC_Auto/input/Sample.pdf</t>
   </si>
   <si>
-    <t>sac83@grr.la</t>
-  </si>
-  <si>
-    <t>sac84@grr.la</t>
-  </si>
-  <si>
-    <t>sac85@grr.la</t>
-  </si>
-  <si>
-    <t>sac80@mailinator.com</t>
-  </si>
-  <si>
-    <t>sac81@mailinator.com</t>
-  </si>
-  <si>
-    <t>sac82@mailinator.com</t>
+    <t>sac86@mailinator.com</t>
+  </si>
+  <si>
+    <t>sac87@mailinator.com</t>
+  </si>
+  <si>
+    <t>sac88@mailinator.com</t>
+  </si>
+  <si>
+    <t>sac87@grr.la</t>
+  </si>
+  <si>
+    <t>sac88@grr.la</t>
+  </si>
+  <si>
+    <t>sac89@grr.la</t>
+  </si>
+  <si>
+    <t>sac2@grr.la</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,10 +193,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,12 +216,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -223,20 +246,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -581,155 +627,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="90">
+    </row>
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -749,104 +799,104 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="J13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5"/>
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
     </row>
